--- a/tests/10_Data_Cancel_Course.xlsx
+++ b/tests/10_Data_Cancel_Course.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27928"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E5D976E-3250-4F80-B534-97956F63BB93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D4BFE91-F98B-4A24-9421-1509D49F57DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -11,12 +11,25 @@
     <sheet name="ตารางที่ TC010-EC" sheetId="1" r:id="rId1"/>
     <sheet name="ตารางที่ TC010-TC" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="43">
   <si>
     <t>TCID</t>
   </si>
@@ -45,9 +58,6 @@
     <t>Cypress.io</t>
   </si>
   <si>
-    <t>True</t>
-  </si>
-  <si>
     <t>คุณแน่ใจหรือว่าต้องการลบการร้องขอนี้?</t>
   </si>
   <si>
@@ -124,6 +134,30 @@
   </si>
   <si>
     <t>Valid Cancel Coures</t>
+  </si>
+  <si>
+    <t>Revise</t>
+  </si>
+  <si>
+    <t>Pass</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Result P/F </t>
+  </si>
+  <si>
+    <t>คิดเป็น %</t>
+  </si>
+  <si>
+    <t>Pass :</t>
+  </si>
+  <si>
+    <t>Fail :</t>
+  </si>
+  <si>
+    <t>Sum :</t>
+  </si>
+  <si>
+    <t>Revise Manual Testing</t>
   </si>
 </sst>
 </file>
@@ -324,7 +358,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -391,11 +425,72 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="ปกติ" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="5">
+    <dxf>
+      <font>
+        <color theme="9"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -671,10 +766,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -686,7 +781,7 @@
     <col min="6" max="6" width="18.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -708,8 +803,11 @@
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H1" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -722,13 +820,16 @@
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
       <c r="F2" s="2" t="s">
-        <v>9</v>
+        <v>36</v>
       </c>
       <c r="G2" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H2" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -739,19 +840,128 @@
         <v>8</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>9</v>
+        <v>36</v>
       </c>
       <c r="G3" s="2">
         <v>2</v>
       </c>
+      <c r="H3" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F6" s="27" t="s">
+        <v>37</v>
+      </c>
+      <c r="G6" s="27"/>
+      <c r="H6" s="28" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F7" s="26" t="s">
+        <v>39</v>
+      </c>
+      <c r="G7" s="29">
+        <f>COUNTIF(F2:F3,"Pass")</f>
+        <v>2</v>
+      </c>
+      <c r="H7" s="29">
+        <f>G7*100/G9</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F8" s="26" t="s">
+        <v>40</v>
+      </c>
+      <c r="G8" s="29">
+        <f>COUNTIF(F2:F3,"Fail")</f>
+        <v>0</v>
+      </c>
+      <c r="H8" s="29">
+        <f>G8*100/G9</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F9" s="26" t="s">
+        <v>41</v>
+      </c>
+      <c r="G9" s="29">
+        <f>SUM(G7:G8)</f>
+        <v>2</v>
+      </c>
+      <c r="H9" s="29">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F11" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="G11" s="27"/>
+      <c r="H11" s="28" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F12" s="26" t="s">
+        <v>39</v>
+      </c>
+      <c r="G12" s="29">
+        <f>COUNTIF(H2:H3,"Pass")</f>
+        <v>2</v>
+      </c>
+      <c r="H12" s="29">
+        <f>G12*100/G14</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F13" s="26" t="s">
+        <v>40</v>
+      </c>
+      <c r="G13" s="29">
+        <f>COUNTIF(H2:H3,"Fail")</f>
+        <v>0</v>
+      </c>
+      <c r="H13" s="29">
+        <f>G13*100/G14</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F14" s="26" t="s">
+        <v>41</v>
+      </c>
+      <c r="G14" s="29">
+        <f>SUM(G12:G13)</f>
+        <v>2</v>
+      </c>
+      <c r="H14" s="29">
+        <v>100</v>
+      </c>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="F11:G11"/>
+  </mergeCells>
+  <conditionalFormatting sqref="F2:F3">
+    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
+      <formula>"Pass"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+      <formula>"Fail"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -779,19 +989,19 @@
         <v>0</v>
       </c>
       <c r="B1" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="D1" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="E1" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="F1" s="7" t="s">
         <v>14</v>
-      </c>
-      <c r="F1" s="7" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -799,13 +1009,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="D2" s="11" t="s">
         <v>17</v>
-      </c>
-      <c r="D2" s="11" t="s">
-        <v>18</v>
       </c>
       <c r="E2" s="12"/>
       <c r="F2" s="23"/>
@@ -814,10 +1024,10 @@
       <c r="A3" s="13"/>
       <c r="B3" s="14"/>
       <c r="C3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" s="15" t="s">
         <v>19</v>
-      </c>
-      <c r="D3" s="15" t="s">
-        <v>20</v>
       </c>
       <c r="F3" s="24"/>
     </row>
@@ -825,10 +1035,10 @@
       <c r="A4" s="13"/>
       <c r="B4" s="14"/>
       <c r="C4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" s="15" t="s">
         <v>21</v>
-      </c>
-      <c r="D4" s="15" t="s">
-        <v>22</v>
       </c>
       <c r="F4" s="24"/>
     </row>
@@ -836,10 +1046,10 @@
       <c r="A5" s="13"/>
       <c r="B5" s="14"/>
       <c r="C5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" s="15" t="s">
         <v>23</v>
-      </c>
-      <c r="D5" s="15" t="s">
-        <v>24</v>
       </c>
       <c r="F5" s="24"/>
     </row>
@@ -847,10 +1057,10 @@
       <c r="A6" s="13"/>
       <c r="B6" s="14"/>
       <c r="C6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" s="15" t="s">
         <v>25</v>
-      </c>
-      <c r="D6" s="15" t="s">
-        <v>26</v>
       </c>
       <c r="F6" s="24"/>
     </row>
@@ -858,10 +1068,10 @@
       <c r="A7" s="13"/>
       <c r="B7" s="14"/>
       <c r="C7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" s="15" t="s">
         <v>27</v>
-      </c>
-      <c r="D7" s="15" t="s">
-        <v>28</v>
       </c>
       <c r="E7" s="16" t="s">
         <v>8</v>
@@ -872,10 +1082,10 @@
       <c r="A8" s="13"/>
       <c r="B8" s="14"/>
       <c r="C8" t="s">
+        <v>28</v>
+      </c>
+      <c r="D8" s="15" t="s">
         <v>29</v>
-      </c>
-      <c r="D8" s="15" t="s">
-        <v>30</v>
       </c>
       <c r="F8" s="24"/>
     </row>
@@ -883,10 +1093,10 @@
       <c r="A9" s="13"/>
       <c r="B9" s="14"/>
       <c r="C9" t="s">
+        <v>30</v>
+      </c>
+      <c r="D9" s="15" t="s">
         <v>31</v>
-      </c>
-      <c r="D9" s="15" t="s">
-        <v>32</v>
       </c>
       <c r="F9" s="24"/>
     </row>
@@ -894,10 +1104,10 @@
       <c r="A10" s="17"/>
       <c r="B10" s="18"/>
       <c r="C10" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="D10" s="20" t="s">
         <v>33</v>
-      </c>
-      <c r="D10" s="20" t="s">
-        <v>34</v>
       </c>
       <c r="E10" s="21"/>
       <c r="F10" s="25"/>
@@ -907,27 +1117,27 @@
         <v>2</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C11" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="D11" s="11" t="s">
         <v>17</v>
-      </c>
-      <c r="D11" s="11" t="s">
-        <v>18</v>
       </c>
       <c r="E11" s="12"/>
       <c r="F11" s="23" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="13"/>
       <c r="B12" s="14"/>
       <c r="C12" t="s">
+        <v>18</v>
+      </c>
+      <c r="D12" s="15" t="s">
         <v>19</v>
-      </c>
-      <c r="D12" s="15" t="s">
-        <v>20</v>
       </c>
       <c r="F12" s="24"/>
     </row>
@@ -935,10 +1145,10 @@
       <c r="A13" s="13"/>
       <c r="B13" s="14"/>
       <c r="C13" t="s">
+        <v>20</v>
+      </c>
+      <c r="D13" s="15" t="s">
         <v>21</v>
-      </c>
-      <c r="D13" s="15" t="s">
-        <v>22</v>
       </c>
       <c r="F13" s="24"/>
     </row>
@@ -946,10 +1156,10 @@
       <c r="A14" s="13"/>
       <c r="B14" s="14"/>
       <c r="C14" t="s">
+        <v>22</v>
+      </c>
+      <c r="D14" s="15" t="s">
         <v>23</v>
-      </c>
-      <c r="D14" s="15" t="s">
-        <v>24</v>
       </c>
       <c r="F14" s="24"/>
     </row>
@@ -957,10 +1167,10 @@
       <c r="A15" s="13"/>
       <c r="B15" s="14"/>
       <c r="C15" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15" s="15" t="s">
         <v>25</v>
-      </c>
-      <c r="D15" s="15" t="s">
-        <v>26</v>
       </c>
       <c r="F15" s="24"/>
     </row>
@@ -968,10 +1178,10 @@
       <c r="A16" s="13"/>
       <c r="B16" s="14"/>
       <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" s="15" t="s">
         <v>27</v>
-      </c>
-      <c r="D16" s="15" t="s">
-        <v>28</v>
       </c>
       <c r="E16" s="22" t="s">
         <v>8</v>
@@ -982,10 +1192,10 @@
       <c r="A17" s="13"/>
       <c r="B17" s="14"/>
       <c r="C17" t="s">
+        <v>28</v>
+      </c>
+      <c r="D17" s="15" t="s">
         <v>29</v>
-      </c>
-      <c r="D17" s="15" t="s">
-        <v>30</v>
       </c>
       <c r="F17" s="24"/>
     </row>
@@ -993,10 +1203,10 @@
       <c r="A18" s="13"/>
       <c r="B18" s="14"/>
       <c r="C18" t="s">
+        <v>30</v>
+      </c>
+      <c r="D18" s="15" t="s">
         <v>31</v>
-      </c>
-      <c r="D18" s="15" t="s">
-        <v>32</v>
       </c>
       <c r="F18" s="24"/>
     </row>
@@ -1004,10 +1214,10 @@
       <c r="A19" s="17"/>
       <c r="B19" s="18"/>
       <c r="C19" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="D19" s="20" t="s">
         <v>33</v>
-      </c>
-      <c r="D19" s="20" t="s">
-        <v>34</v>
       </c>
       <c r="E19" s="21"/>
       <c r="F19" s="25"/>

--- a/tests/10_Data_Cancel_Course.xlsx
+++ b/tests/10_Data_Cancel_Course.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27928"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D4BFE91-F98B-4A24-9421-1509D49F57DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A89134F-409C-4AF8-AA15-4282E78F2E48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="43">
   <si>
     <t>TCID</t>
   </si>
@@ -52,9 +52,6 @@
     <t>TID</t>
   </si>
   <si>
-    <t>กดปุ่ม Cancel</t>
-  </si>
-  <si>
     <t>Cypress.io</t>
   </si>
   <si>
@@ -158,6 +155,9 @@
   </si>
   <si>
     <t>Revise Manual Testing</t>
+  </si>
+  <si>
+    <t>กดปุ่ม Cancel Course</t>
   </si>
 </sst>
 </file>
@@ -416,6 +416,16 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -423,23 +433,13 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="ปกติ" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="5">
+  <dxfs count="2">
     <dxf>
       <font>
         <color theme="9"/>
@@ -447,36 +447,6 @@
       <fill>
         <patternFill>
           <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="9"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
     </dxf>
@@ -766,15 +736,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H14"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="15.5" customWidth="1"/>
+    <col min="2" max="2" width="24.3984375" customWidth="1"/>
     <col min="3" max="3" width="17.19921875" customWidth="1"/>
     <col min="4" max="4" width="30.69921875" customWidth="1"/>
     <col min="5" max="5" width="36.5" customWidth="1"/>
@@ -804,7 +774,7 @@
         <v>6</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
@@ -812,154 +782,132 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="D2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
+      <c r="E2" s="2" t="s">
+        <v>8</v>
+      </c>
       <c r="F2" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G2" s="2">
         <v>1</v>
       </c>
       <c r="H2" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F5" s="26" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="2">
-        <v>2</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="G3" s="2">
-        <v>2</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>36</v>
+      <c r="G5" s="26"/>
+      <c r="H5" s="24" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F6" s="27" t="s">
+      <c r="F6" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="G6" s="25">
+        <f>COUNTIF(F2:F2,"Pass")</f>
+        <v>1</v>
+      </c>
+      <c r="H6" s="25">
+        <f>G6*100/G8</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F7" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="G7" s="25">
+        <f>COUNTIF(F2:F2,"Fail")</f>
+        <v>0</v>
+      </c>
+      <c r="H7" s="25">
+        <f>G7*100/G8</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F8" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="G8" s="25">
+        <f>SUM(G6:G7)</f>
+        <v>1</v>
+      </c>
+      <c r="H8" s="25">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F10" s="26" t="s">
+        <v>41</v>
+      </c>
+      <c r="G10" s="26"/>
+      <c r="H10" s="24" t="s">
         <v>37</v>
       </c>
-      <c r="G6" s="27"/>
-      <c r="H6" s="28" t="s">
+    </row>
+    <row r="11" spans="1:8" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F11" s="23" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F7" s="26" t="s">
+      <c r="G11" s="25">
+        <f>COUNTIF(H2:H2,"Pass")</f>
+        <v>1</v>
+      </c>
+      <c r="H11" s="25">
+        <f>G11*100/G13</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F12" s="23" t="s">
         <v>39</v>
       </c>
-      <c r="G7" s="29">
-        <f>COUNTIF(F2:F3,"Pass")</f>
-        <v>2</v>
-      </c>
-      <c r="H7" s="29">
-        <f>G7*100/G9</f>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F8" s="26" t="s">
+      <c r="G12" s="25">
+        <f>COUNTIF(H2:H2,"Fail")</f>
+        <v>0</v>
+      </c>
+      <c r="H12" s="25">
+        <f>G12*100/G13</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F13" s="23" t="s">
         <v>40</v>
       </c>
-      <c r="G8" s="29">
-        <f>COUNTIF(F2:F3,"Fail")</f>
-        <v>0</v>
-      </c>
-      <c r="H8" s="29">
-        <f>G8*100/G9</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F9" s="26" t="s">
-        <v>41</v>
-      </c>
-      <c r="G9" s="29">
-        <f>SUM(G7:G8)</f>
-        <v>2</v>
-      </c>
-      <c r="H9" s="29">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F11" s="27" t="s">
-        <v>42</v>
-      </c>
-      <c r="G11" s="27"/>
-      <c r="H11" s="28" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F12" s="26" t="s">
-        <v>39</v>
-      </c>
-      <c r="G12" s="29">
-        <f>COUNTIF(H2:H3,"Pass")</f>
-        <v>2</v>
-      </c>
-      <c r="H12" s="29">
-        <f>G12*100/G14</f>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F13" s="26" t="s">
-        <v>40</v>
-      </c>
-      <c r="G13" s="29">
-        <f>COUNTIF(H2:H3,"Fail")</f>
-        <v>0</v>
-      </c>
-      <c r="H13" s="29">
-        <f>G13*100/G14</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F14" s="26" t="s">
-        <v>41</v>
-      </c>
-      <c r="G14" s="29">
-        <f>SUM(G12:G13)</f>
-        <v>2</v>
-      </c>
-      <c r="H14" s="29">
+      <c r="G13" s="25">
+        <f>SUM(G11:G12)</f>
+        <v>1</v>
+      </c>
+      <c r="H13" s="25">
         <v>100</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="F10:G10"/>
   </mergeCells>
-  <conditionalFormatting sqref="F2:F3">
-    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
-      <formula>"Pass"</formula>
-    </cfRule>
+  <conditionalFormatting sqref="F2">
     <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
       <formula>"Fail"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
+      <formula>"Pass"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -989,19 +937,19 @@
         <v>0</v>
       </c>
       <c r="B1" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="D1" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="E1" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="F1" s="7" t="s">
         <v>13</v>
-      </c>
-      <c r="F1" s="7" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -1009,218 +957,218 @@
         <v>1</v>
       </c>
       <c r="B2" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="D2" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="D2" s="11" t="s">
-        <v>17</v>
-      </c>
       <c r="E2" s="12"/>
-      <c r="F2" s="23"/>
+      <c r="F2" s="27"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="13"/>
       <c r="B3" s="14"/>
       <c r="C3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="D3" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="F3" s="24"/>
+      <c r="F3" s="28"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="13"/>
       <c r="B4" s="14"/>
       <c r="C4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="D4" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="F4" s="24"/>
+      <c r="F4" s="28"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="13"/>
       <c r="B5" s="14"/>
       <c r="C5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="D5" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="F5" s="24"/>
+      <c r="F5" s="28"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="13"/>
       <c r="B6" s="14"/>
       <c r="C6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="D6" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="F6" s="24"/>
+      <c r="F6" s="28"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="13"/>
       <c r="B7" s="14"/>
       <c r="C7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="D7" s="15" t="s">
-        <v>27</v>
-      </c>
       <c r="E7" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="F7" s="24"/>
+        <v>7</v>
+      </c>
+      <c r="F7" s="28"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="13"/>
       <c r="B8" s="14"/>
       <c r="C8" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="D8" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="F8" s="24"/>
+      <c r="F8" s="28"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="13"/>
       <c r="B9" s="14"/>
       <c r="C9" t="s">
+        <v>29</v>
+      </c>
+      <c r="D9" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="D9" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="F9" s="24"/>
+      <c r="F9" s="28"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="17"/>
       <c r="B10" s="18"/>
       <c r="C10" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="D10" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="D10" s="20" t="s">
-        <v>33</v>
-      </c>
       <c r="E10" s="21"/>
-      <c r="F10" s="25"/>
+      <c r="F10" s="29"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="8">
         <v>2</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C11" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D11" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="D11" s="11" t="s">
-        <v>17</v>
-      </c>
       <c r="E11" s="12"/>
-      <c r="F11" s="23" t="s">
-        <v>9</v>
+      <c r="F11" s="27" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="13"/>
       <c r="B12" s="14"/>
       <c r="C12" t="s">
+        <v>17</v>
+      </c>
+      <c r="D12" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="D12" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="F12" s="24"/>
+      <c r="F12" s="28"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="13"/>
       <c r="B13" s="14"/>
       <c r="C13" t="s">
+        <v>19</v>
+      </c>
+      <c r="D13" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="D13" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="F13" s="24"/>
+      <c r="F13" s="28"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="13"/>
       <c r="B14" s="14"/>
       <c r="C14" t="s">
+        <v>21</v>
+      </c>
+      <c r="D14" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="D14" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="F14" s="24"/>
+      <c r="F14" s="28"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="13"/>
       <c r="B15" s="14"/>
       <c r="C15" t="s">
+        <v>23</v>
+      </c>
+      <c r="D15" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="D15" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="F15" s="24"/>
+      <c r="F15" s="28"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="13"/>
       <c r="B16" s="14"/>
       <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="D16" s="15" t="s">
-        <v>27</v>
-      </c>
       <c r="E16" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="F16" s="24"/>
+        <v>7</v>
+      </c>
+      <c r="F16" s="28"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="13"/>
       <c r="B17" s="14"/>
       <c r="C17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="D17" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="F17" s="24"/>
+      <c r="F17" s="28"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="13"/>
       <c r="B18" s="14"/>
       <c r="C18" t="s">
+        <v>29</v>
+      </c>
+      <c r="D18" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="D18" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="F18" s="24"/>
+      <c r="F18" s="28"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="17"/>
       <c r="B19" s="18"/>
       <c r="C19" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="D19" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="D19" s="20" t="s">
-        <v>33</v>
-      </c>
       <c r="E19" s="21"/>
-      <c r="F19" s="25"/>
+      <c r="F19" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="2">
